--- a/pilot-projects/06_dilution_tables_media.xlsx
+++ b/pilot-projects/06_dilution_tables_media.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bbf9a23e224bd51a/Documents/GitHub/Chlamydomonas_mic_JRL_2024/pilot-projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="8_{87627D5F-CDA9-4556-9408-110E2CD1A14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{710CA985-1C03-485E-8477-B9CC7CCDDCC8}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{87627D5F-CDA9-4556-9408-110E2CD1A14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B250FB8-8DBE-4E65-B7EC-801C88B3F63D}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{55EB1E87-FE6C-49E0-8377-D9149D790673}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55EB1E87-FE6C-49E0-8377-D9149D790673}"/>
   </bookViews>
   <sheets>
     <sheet name="Nitrogen (serial dilution)" sheetId="2" r:id="rId1"/>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3D64EC-7809-477E-AFA1-7AE9251AD946}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
         <f>B2*1000</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D2" s="1">
         <v>0.5</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G10" si="0">D2/D3*B2</f>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H9" si="1">100-G2</f>
-        <v>50</v>
+        <f>B2-G2</f>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -530,7 +530,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C11" si="2">B3*1000</f>
+        <f t="shared" ref="C3:C11" si="1">B3*1000</f>
         <v>100000</v>
       </c>
       <c r="D3" s="1">
@@ -541,7 +541,7 @@
         <v>20</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H2:H9" si="2">100-G3</f>
         <v>80</v>
       </c>
     </row>
@@ -553,7 +553,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D4" s="1">
@@ -564,7 +564,7 @@
         <v>50</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
@@ -576,7 +576,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D5" s="1">
@@ -587,7 +587,7 @@
         <v>40</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -599,7 +599,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D6" s="1">
@@ -610,7 +610,7 @@
         <v>50</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
@@ -622,7 +622,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D7" s="1">
@@ -633,7 +633,7 @@
         <v>50</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
@@ -645,7 +645,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D8" s="1">
@@ -656,7 +656,7 @@
         <v>25</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
@@ -668,7 +668,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D9" s="1">
@@ -679,7 +679,7 @@
         <v>57.142857142857139</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.857142857142861</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="D10" s="1">
@@ -714,7 +714,7 @@
         <v>200</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200000</v>
       </c>
       <c r="D11" s="1">
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE517106-4CA8-4205-AF07-6263D3D516D8}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1140,22 +1140,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <f>B2*1000</f>
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G10" si="0">D2/D3*B2</f>
+        <f t="shared" ref="G2:G9" si="0">D2/D3*B2</f>
         <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H9" si="1">B2-G2</f>
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1163,22 +1163,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C11" si="2">B3*1000</f>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1186,22 +1186,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>16.666666666666671</v>
+        <v>13.333333333333336</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1216,7 +1216,7 @@
         <v>50000</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -1232,22 +1232,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1255,22 +1255,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>41.666666666666671</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>8.3333333333333286</v>
+        <v>11.666666666666664</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1278,22 +1278,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="D8" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>42.857142857142854</v>
+        <v>68.571428571428569</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>7.1428571428571459</v>
+        <v>11.428571428571431</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1301,22 +1301,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="D9" s="1">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>43.75</v>
+        <v>78.75</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1324,22 +1324,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="D10" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <f>D10/D11*B10</f>
-        <v>44.444444444444443</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="H10">
         <f>B10-G10</f>
-        <v>5.5555555555555571</v>
+        <v>11.111111111111114</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1347,14 +1347,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="2"/>
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D11" s="1">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="F11" s="1">
         <v>100</v>
